--- a/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
@@ -391,28 +391,7 @@
     <t>https://www.alsacreations.com/astuce/lire/34-charset-iso-8859-1-iso-8859-15-utf-8-lequel-choisir.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>     Page 2 problème analysé</t>
-    </r>
+    <t>                      Page 2 problème analysé</t>
   </si>
   <si>
     <t>                            Page 2   Bonne pratique à adopter</t>
@@ -448,91 +427,91 @@
     <t>N°1</t>
   </si>
   <si>
-    <t>Respect des normes de bonne pratiques </t>
+    <t>Utilisation de balise sémantique </t>
+  </si>
+  <si>
+    <t>(Améliorer la comprehension du robot sur le contenu du site)</t>
+  </si>
+  <si>
+    <t>N°2</t>
+  </si>
+  <si>
+    <t>Retrait des pratiques pour tromper le moteur de recherche </t>
+  </si>
+  <si>
+    <t>(Risque de pénalisation sur le référencement par le moteur de recherche )</t>
+  </si>
+  <si>
+    <t>N°3</t>
+  </si>
+  <si>
+    <t>Un affichage correcte du site en responsive</t>
+  </si>
+  <si>
+    <t>(Utilisation correcte des médiaqueries et de la metaviewport)</t>
+  </si>
+  <si>
+    <t>N°4</t>
+  </si>
+  <si>
+    <t>Un contenu de bonne qualité et cohérent </t>
+  </si>
+  <si>
+    <t>(Pas d'image lorsque qu'il s'agit de contenu textuel)</t>
+  </si>
+  <si>
+    <t>N°5</t>
+  </si>
+  <si>
+    <t>Vérifier que le site se charge suffisamment rapidement en allégeant les images</t>
+  </si>
+  <si>
+    <t>(Un site qui se charge rapidement est un bon site pour les moteurs de recherche)</t>
+  </si>
+  <si>
+    <t>N°6</t>
+  </si>
+  <si>
+    <t>Faire en sorte que le site soit accessible a tous types d'utilisateurs</t>
+  </si>
+  <si>
+    <t>(Les personnes qui possèdent un handicap ou une pathologie)</t>
+  </si>
+  <si>
+    <t>N°7</t>
+  </si>
+  <si>
+    <t>Une navigation pratique pour les utilisateurs </t>
+  </si>
+  <si>
+    <t>(La notion de mobile-friendly permet au moteur de recherche que le site est de qualité)</t>
+  </si>
+  <si>
+    <t>N°8</t>
+  </si>
+  <si>
+    <t>Utilisation correcte de la Meta description</t>
+  </si>
+  <si>
+    <t>(C'est elle qui va permettre a l'utilisateur de quoi par le notre site avant de le visiter)</t>
+  </si>
+  <si>
+    <t>N°9</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser de SEO obselete </t>
+  </si>
+  <si>
+    <t>(En plus de ne pas être comptabiliser, il pourrait dans le pire des cas pénalisé le SEO)</t>
+  </si>
+  <si>
+    <t>N°10</t>
+  </si>
+  <si>
+    <t>Page sans erreur de code</t>
   </si>
   <si>
     <t>(Validation W3c html et css OK)</t>
-  </si>
-  <si>
-    <t>N°2</t>
-  </si>
-  <si>
-    <t>Utilisation de balise sémantique </t>
-  </si>
-  <si>
-    <t>(Améliorer la comprehension du robot sur le contenu du site)</t>
-  </si>
-  <si>
-    <t>N°3</t>
-  </si>
-  <si>
-    <t>Retrait des pratiques pour tromper le moteur de recherche </t>
-  </si>
-  <si>
-    <t>(Risque de pénalisation sur le référencement par le moteur de recherche )</t>
-  </si>
-  <si>
-    <t>N°4</t>
-  </si>
-  <si>
-    <t>Un affichage correcte du site en responsive</t>
-  </si>
-  <si>
-    <t>(Utilisation correcte des médiaqueries et de la metaviewport)</t>
-  </si>
-  <si>
-    <t>N°5</t>
-  </si>
-  <si>
-    <t>Un contenu de bonne qualité et cohérent </t>
-  </si>
-  <si>
-    <t>(Pas d'image lorsque qu'il s'agit de contenu textuel)</t>
-  </si>
-  <si>
-    <t>N°6</t>
-  </si>
-  <si>
-    <t>Vérifier que le site se charge rapidement</t>
-  </si>
-  <si>
-    <t>(Un site qui se charge rapidement est un bon site pour les moteurs de recherche)</t>
-  </si>
-  <si>
-    <t>N°7</t>
-  </si>
-  <si>
-    <t>Faire en sorte que le site soit accessible a tous types d'utilisateurs</t>
-  </si>
-  <si>
-    <t>(Les personnes qui possèdent un handicap ou une pathologie)</t>
-  </si>
-  <si>
-    <t>N°8</t>
-  </si>
-  <si>
-    <t>Une navigation pratique pour les utilisateurs </t>
-  </si>
-  <si>
-    <t>(La notion de mobile-friendly permet au moteur de recherche que le site est de qualité)</t>
-  </si>
-  <si>
-    <t>N°9</t>
-  </si>
-  <si>
-    <t>Utilisation correcte de la Meta description</t>
-  </si>
-  <si>
-    <t>(C'est elle qui va permettre a l'utilisateur de quoi par le notre site avant de le visiter)</t>
-  </si>
-  <si>
-    <t>N°10</t>
-  </si>
-  <si>
-    <t>Ne pas utiliser de SEO obselete </t>
-  </si>
-  <si>
-    <t>(En plus de ne pas être comptabiliser, il pourrait dans le pire des cas pénalisé le SEO)</t>
   </si>
   <si>
     <t>Les Rapports</t>
@@ -569,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -625,12 +604,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -658,14 +631,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -678,12 +643,6 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -792,7 +751,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -821,19 +780,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,23 +796,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -865,15 +816,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,15 +832,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -897,11 +844,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -984,20 +927,19 @@
   </sheetPr>
   <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3531914893617"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.2468085106383"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.1106382978723"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.6851063829787"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8297872340426"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="90.9702127659574"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="14.5234042553191"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.45957446808511"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3659574468085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.8510638297872"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.4468085106383"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.2723404255319"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9702127659574"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="96.4893617021277"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="15.4255319148936"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1158,7 +1100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1205,7 +1147,7 @@
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1219,15 +1161,15 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1242,12 +1184,12 @@
       <c r="E13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1267,7 +1209,7 @@
       </c>
     </row>
     <row r="15" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1287,7 +1229,7 @@
       </c>
     </row>
     <row r="16" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1307,7 +1249,7 @@
       </c>
     </row>
     <row r="17" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1327,7 +1269,7 @@
       </c>
     </row>
     <row r="18" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1347,7 +1289,7 @@
       </c>
     </row>
     <row r="19" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1365,7 +1307,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1385,7 +1327,7 @@
       </c>
     </row>
     <row r="21" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1405,7 +1347,7 @@
       </c>
     </row>
     <row r="22" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1424,8 +1366,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1444,8 +1386,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1464,8 +1406,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1485,7 +1427,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1505,7 +1447,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1525,7 +1467,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1545,7 +1487,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1563,7 +1505,7 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1583,25 +1525,25 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1625,184 +1567,183 @@
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19"/>
+      <c r="A42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="20" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="20" t="s">
         <v>163</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
     <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>166</v>
+      <c r="A55" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="26" t="s">
+      <c r="A56" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>169</v>
       </c>
+      <c r="C56" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B57" s="26" t="s">
+      <c r="A57" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B58" s="26" t="s">
+      <c r="A58" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="27"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A59" s="23"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">

--- a/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="172">
   <si>
     <t>Catégorie</t>
   </si>
@@ -436,73 +436,70 @@
     <t>N°2</t>
   </si>
   <si>
-    <t>Retrait des pratiques pour tromper le moteur de recherche </t>
+    <t>Retrait des pratiques pour tromper le moteur de recherche (retrait des pratiques blackhat)</t>
   </si>
   <si>
     <t>(Risque de pénalisation sur le référencement par le moteur de recherche )</t>
   </si>
   <si>
+    <t>N°4</t>
+  </si>
+  <si>
+    <t>Un contenu de bonne qualité et cohérent (mot clef non spammé,un titre les liens ont un texte descriptif, et des attribut alt cohérent, le document a une href lang valide)</t>
+  </si>
+  <si>
+    <t>(Pas d'image lorsque qu'il s'agit de contenu textuel)</t>
+  </si>
+  <si>
+    <t>N°5</t>
+  </si>
+  <si>
+    <t>Alleger les pages du site( image css script minifier)</t>
+  </si>
+  <si>
+    <t>(Un site qui se charge rapidement est un bon site pour les moteurs de recherche)</t>
+  </si>
+  <si>
     <t>N°3</t>
   </si>
   <si>
-    <t>Un affichage correcte du site en responsive</t>
-  </si>
-  <si>
-    <t>(Utilisation correcte des médiaqueries et de la metaviewport)</t>
-  </si>
-  <si>
-    <t>N°4</t>
-  </si>
-  <si>
-    <t>Un contenu de bonne qualité et cohérent </t>
-  </si>
-  <si>
-    <t>(Pas d'image lorsque qu'il s'agit de contenu textuel)</t>
-  </si>
-  <si>
-    <t>N°5</t>
-  </si>
-  <si>
-    <t>Vérifier que le site se charge suffisamment rapidement en allégeant les images</t>
-  </si>
-  <si>
-    <t>(Un site qui se charge rapidement est un bon site pour les moteurs de recherche)</t>
+    <t>Un affichage correcte du site en responsive (element caché de la page et la barre de navigation doivent fonctionné charger le bootstrap page2)</t>
+  </si>
+  <si>
+    <t>(google va voir qu'il y a du conten u mal affiché et va pénalisé la page</t>
+  </si>
+  <si>
+    <t>N°7</t>
+  </si>
+  <si>
+    <t>Une navigation pratique pour les utilisateurs , mobile friendly ,la page doit etre lisible , espacement des liens cliquable)</t>
+  </si>
+  <si>
+    <t>(La notion de mobile-friendly permet au moteur de recherche que le site est de qualité)</t>
+  </si>
+  <si>
+    <t>N°8</t>
+  </si>
+  <si>
+    <t>Utilisation correcte de la Meta description</t>
+  </si>
+  <si>
+    <t>(C'est elle qui va permettre a l'utilisateur de quoi par le notre site avant de le visiter)</t>
+  </si>
+  <si>
+    <t>N°9</t>
+  </si>
+  <si>
+    <t>Ne pas utiliser de SEO obselete </t>
+  </si>
+  <si>
+    <t>(En plus de ne pas être comptabiliser, il pourrait dans le pire des cas pénalisé le SEO)</t>
   </si>
   <si>
     <t>N°6</t>
   </si>
   <si>
-    <t>Faire en sorte que le site soit accessible a tous types d'utilisateurs</t>
-  </si>
-  <si>
-    <t>(Les personnes qui possèdent un handicap ou une pathologie)</t>
-  </si>
-  <si>
-    <t>N°7</t>
-  </si>
-  <si>
-    <t>Une navigation pratique pour les utilisateurs </t>
-  </si>
-  <si>
-    <t>(La notion de mobile-friendly permet au moteur de recherche que le site est de qualité)</t>
-  </si>
-  <si>
-    <t>N°8</t>
-  </si>
-  <si>
-    <t>Utilisation correcte de la Meta description</t>
-  </si>
-  <si>
-    <t>(C'est elle qui va permettre a l'utilisateur de quoi par le notre site avant de le visiter)</t>
-  </si>
-  <si>
-    <t>N°9</t>
-  </si>
-  <si>
-    <t>Ne pas utiliser de SEO obselete </t>
-  </si>
-  <si>
-    <t>(En plus de ne pas être comptabiliser, il pourrait dans le pire des cas pénalisé le SEO)</t>
+    <t>Utilisation de donné structuré valide</t>
   </si>
   <si>
     <t>N°10</t>
@@ -927,19 +924,20 @@
   </sheetPr>
   <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3659574468085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.8510638297872"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.4468085106383"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.2723404255319"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9702127659574"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="96.4893617021277"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="15.4255319148936"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4893617021277"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7914893617021"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.063829787234"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.9744680851064"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.331914893617"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="102.229787234043"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="16.3234042553191"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.00851063829787"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1080,7 +1078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1326,7 +1324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>43</v>
       </c>
@@ -1346,7 +1344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>43</v>
       </c>
@@ -1671,78 +1669,76 @@
       <c r="B51" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="C51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="C52" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="20" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="21" t="s">
+      <c r="B57" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="C57" s="17" t="s">
         <v>165</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B58" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="23"/>
+      <c r="B59" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="23"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
